--- a/Company List.xlsx
+++ b/Company List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E00240\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E00240\Documents\git repo\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>骥智科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,45 @@
   </si>
   <si>
     <t>研究员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用智能自动驾驶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曦智科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜亚华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈亦晨</t>
+  </si>
+  <si>
+    <t>张德祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创立时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +118,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,12 +148,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,39 +441,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="22.8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
